--- a/Spectare.Classes/Data/Spectare.xlsx
+++ b/Spectare.Classes/Data/Spectare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="9495" windowHeight="4635" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="9495" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Tatyana</t>
   </si>
@@ -34,30 +34,18 @@
     <t>Весной 1922 года, в эпоху разлагающейся морали, блистательного джаза и «королей контрабандного алкоголя», Ник Каррауэй приезжает из Среднего Запада в Нью-Йорк. Преследуя собственную американскую мечту, он селится по соседству с таинственным, известным своими вечеринками миллионером Джеем Гэтсби, а на противоположном берегу бухты проживают его кузина Дэйзи и её муж, повеса и аристократ, Том Бьюкенен. Так Ник оказывается вовлечённым в захватывающий мир богатых — их иллюзий, любви и обманов. Он становится свидетелем происходящего в этом мире и пишет историю невозможной любви, вечных мечтаний и человеческой трагедии, которые являются отражением современных времен и нравов.</t>
   </si>
   <si>
-    <t>*ссылка на постер*</t>
-  </si>
-  <si>
     <t>*ссылка на трейлер*</t>
   </si>
   <si>
     <t>http://www.online-life.club/2097-velikiy-getsbi-2013.html</t>
   </si>
   <si>
-    <t>*ссылка на фото 1*</t>
-  </si>
-  <si>
-    <t>*ссылка на фото 2*</t>
-  </si>
-  <si>
     <t>Волк с Уолл-стрит</t>
   </si>
   <si>
     <t>1987 год. Джордан Белфорт становится брокером в успешном инвестиционном банке. Вскоре банк закрывается после внезапного обвала индекса Доу-Джонса. По совету жены Терезы Джордан устраивается в небольшое заведение, занимающееся мелкими акциями. Его настойчивый стиль общения с клиентами и врождённая харизма быстро даёт свои плоды. Он знакомится с соседом по дому Донни, торговцем, который сразу находит общий язык с Джорданом и решает открыть с ним собственную фирму. В качестве сотрудников они нанимают нескольких друзей Белфорта, его отца Макса и называют компанию «Стрэттон Оукмонт». В свободное от работы время Джордан прожигает жизнь: лавирует от одной вечеринки к другой, вступает в сексуальные отношения с проститутками, употребляет множество наркотических препаратов, в том числе кокаин и кваалюд. Однажды наступает момент, когда быстрым обогащением Белфорта начинает интересоваться агент ФБР…</t>
   </si>
   <si>
-    <t>*ссылка на фото 3*</t>
-  </si>
-  <si>
     <t>https://videomore.ru/volk_s_uoll-strit</t>
   </si>
   <si>
@@ -83,6 +71,27 @@
   </si>
   <si>
     <t>Биография</t>
+  </si>
+  <si>
+    <t>Images/Великий Гэтсби постер.jpg</t>
+  </si>
+  <si>
+    <t>Images/Волк с Уолл-стрит.jpg</t>
+  </si>
+  <si>
+    <t>Images/Великий Гэтсби 1.jpg</t>
+  </si>
+  <si>
+    <t>Images/Великий Гэтсби 2.jpg</t>
+  </si>
+  <si>
+    <t>Images/Волк с Уолл-стрит 1.jpg</t>
+  </si>
+  <si>
+    <t>Images/Волк с Уолл-стрит 2.jpg</t>
+  </si>
+  <si>
+    <t>Images/Волк с Уолл-стрит 3.jpg</t>
   </si>
 </sst>
 </file>
@@ -479,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,45 +502,45 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -556,18 +565,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -575,7 +584,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -583,18 +592,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -606,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -614,29 +623,29 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Spectare.Classes/Data/Spectare.xlsx
+++ b/Spectare.Classes/Data/Spectare.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Tatyana</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Images/Волк с Уолл-стрит 3.jpg</t>
+  </si>
+  <si>
+    <t>Images/Великий Гэтсби 3.jpg</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,6 +518,9 @@
       </c>
       <c r="G1" t="s">
         <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45">

--- a/Spectare.Classes/Data/Spectare.xlsx
+++ b/Spectare.Classes/Data/Spectare.xlsx
@@ -76,9 +76,6 @@
     <t>Images/Великий Гэтсби постер.jpg</t>
   </si>
   <si>
-    <t>Images/Волк с Уолл-стрит.jpg</t>
-  </si>
-  <si>
     <t>Images/Великий Гэтсби 1.jpg</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Images/Великий Гэтсби 3.jpg</t>
+  </si>
+  <si>
+    <t>Images/Волк с Уолл-стрит постер.jpg</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45">
@@ -531,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -540,13 +540,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
